--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2231.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2231.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.284976685466863</v>
+        <v>1.009957909584045</v>
       </c>
       <c r="B1">
-        <v>2.873697814832811</v>
+        <v>2.130551099777222</v>
       </c>
       <c r="C1">
-        <v>8.799312352936923</v>
+        <v>7.224740028381348</v>
       </c>
       <c r="D1">
-        <v>2.013073727205135</v>
+        <v>2.381644248962402</v>
       </c>
       <c r="E1">
-        <v>1.101873369847667</v>
+        <v>1.339997291564941</v>
       </c>
     </row>
   </sheetData>
